--- a/Assets/Documentation/DTT-Test-Hour-Log-1_updated_bonus.xlsx
+++ b/Assets/Documentation/DTT-Test-Hour-Log-1_updated_bonus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\Eindstage\DTT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\Eindstage\DTT\Perfect maze\Assets\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B49FA163-46C1-45FB-BB9C-36DE27FDE1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF8F0B8-3626-4DBE-B656-F6A339BD0E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,7 +193,7 @@
     <t>Increase the performance</t>
   </si>
   <si>
-    <t>While the initial loading was reduced for large mazes by implementing object pooling, the fps during the generation of large mazes was quite dramatic. At times it was as low as 10fps. I researched various ways to improve the load times and decided to remove the object pooling and use a function that merges my meshes together. It took quite a while to get working, I had to add several extra functionalities to my scripts. Such as keeping track of all up to 4 neighbours of a cell. Only if all neighbours were visited I could safely merge the cell walls with the mazeCellMesh, that's because I generate the maze by turning of walls.</t>
+    <t>While the initial loading was reduced for large mazes by implementing object pooling, the fps during the generation of large mazes was quite dramatic. At times it was as low as 10fps. I researched various ways to improve the load times and decided to remove the object pooling and use a function that merges my meshes together. It took quite a while to get working, I had to add several extra functionalities to my scripts. Such as keeping track of all up to 4 neighbours of a cell. Only if all neighbours were visited I could safely merge the cell walls with the mazeCellMesh, that's because I generate the maze by turning of walls. I should mention that I found the AutoWeld function online, I can't seem to find the source back however.</t>
   </si>
 </sst>
 </file>
